--- a/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D09CFB-3223-4049-8BCE-FE0B735516C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F658D77-6EF0-4201-BCF9-0B45D635DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8A7D3EE2-16FB-4733-A253-BBD901D8C211}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EEFCBB27-FCBC-469B-8EA5-531F2914A10F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>88,86%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>94,46%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>11,14%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -203,9 +317,6 @@
     <t>88,36%</t>
   </si>
   <si>
-    <t>79,52%</t>
-  </si>
-  <si>
     <t>63,76%</t>
   </si>
   <si>
@@ -230,9 +341,6 @@
     <t>33,5%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
     <t>8,68%</t>
   </si>
   <si>
@@ -248,114 +356,6 @@
     <t>30,34%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
     <t>83,73%</t>
   </si>
   <si>
@@ -413,6 +413,93 @@
     <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
     <t>81,6%</t>
   </si>
   <si>
@@ -467,58 +554,52 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>86,31%</t>
@@ -575,87 +656,6 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
     <t>87,31%</t>
   </si>
   <si>
@@ -713,6 +713,84 @@
     <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
     <t>88,67%</t>
   </si>
   <si>
@@ -767,52 +845,52 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>85,38%</t>
@@ -863,84 +941,6 @@
     <t>30,13%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
     <t>85,18%</t>
   </si>
   <si>
@@ -986,6 +986,90 @@
     <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
     <t>86,02%</t>
   </si>
   <si>
@@ -1028,52 +1112,58 @@
     <t>19,31%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>93,98%</t>
@@ -1128,96 +1218,6 @@
   </si>
   <si>
     <t>13,49%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
   </si>
   <si>
     <t>89,6%</t>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF6C31-D180-453E-B32A-E074608CAB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C6D62-EDE6-4AAC-B2E1-91120BCFC612}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>36703</v>
+        <v>3008</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1796,10 +1796,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>37705</v>
+        <v>6240</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1811,10 +1811,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>74407</v>
+        <v>9247</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1832,10 +1832,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4603</v>
+        <v>1779</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1847,10 +1847,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>3942</v>
+        <v>3454</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1862,10 +1862,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>8545</v>
+        <v>5234</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1883,10 +1883,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1898,10 +1898,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1913,10 +1913,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2091,10 +2091,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>30351</v>
+        <v>36703</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2106,10 +2106,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>20419</v>
+        <v>37705</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2121,10 +2121,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7">
-        <v>50770</v>
+        <v>74407</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2142,10 +2142,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>8466</v>
+        <v>4603</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2157,10 +2157,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>5258</v>
+        <v>3942</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2172,10 +2172,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>13724</v>
+        <v>8545</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2193,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2208,10 +2208,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2223,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2246,10 +2246,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>3008</v>
+        <v>29262</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2261,10 +2261,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>6240</v>
+        <v>23279</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2276,10 +2276,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>9247</v>
+        <v>52540</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2297,10 +2297,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>1779</v>
+        <v>5861</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2312,10 +2312,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>3454</v>
+        <v>1885</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>5234</v>
+        <v>7746</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2348,10 +2348,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2363,10 +2363,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2378,10 +2378,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2401,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>29262</v>
+        <v>30351</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2416,25 +2416,25 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>23279</v>
+        <v>20419</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>52540</v>
+        <v>50770</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2452,10 +2452,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>5861</v>
+        <v>8466</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2467,25 +2467,25 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>1885</v>
+        <v>5258</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>7746</v>
+        <v>13724</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2503,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2518,10 +2518,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2533,10 +2533,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2721,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22373508-D372-415D-9FD3-D32DE060475E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641C84B-A817-48F8-BB5A-69E68272B318}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2839,49 +2839,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>32901</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5338</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7">
-        <v>37763</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7989</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="7">
-        <v>103</v>
-      </c>
-      <c r="N4" s="7">
-        <v>70664</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +2890,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>7419</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>896</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>896</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3261</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="7">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10680</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2956,10 +2956,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>41024</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2971,10 +2971,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>81344</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3000,13 +3000,13 @@
         <v>29036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3015,13 +3015,13 @@
         <v>18964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3030,13 +3030,13 @@
         <v>48001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>2736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -3066,13 +3066,13 @@
         <v>6248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3081,13 +3081,13 @@
         <v>8984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3149,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>40763</v>
+        <v>32901</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7">
+        <v>37763</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="7">
+        <v>103</v>
+      </c>
+      <c r="N10" s="7">
+        <v>70664</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="7">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39000</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="7">
-        <v>107</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79763</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3200,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>6466</v>
+        <v>7419</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3261</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10680</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2786</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9252</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,10 +3251,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>47229</v>
+        <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3266,10 +3266,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>41024</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3281,10 +3281,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>81344</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3304,49 +3304,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>32571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="7">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7">
+        <v>28397</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="7">
+        <v>96</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60968</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5338</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7989</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3355,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3423</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4567</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7990</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>896</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>896</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3421,10 +3421,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3436,10 +3436,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3459,49 +3459,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>32571</v>
+        <v>40763</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>52</v>
+      </c>
+      <c r="I16" s="7">
+        <v>39000</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28397</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>107</v>
+      </c>
+      <c r="N16" s="7">
+        <v>79763</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="7">
-        <v>96</v>
-      </c>
-      <c r="N16" s="7">
-        <v>60968</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,25 +3510,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>3423</v>
+        <v>6466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4567</v>
+        <v>2786</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>199</v>
@@ -3540,10 +3540,10 @@
         <v>201</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>7990</v>
+        <v>9252</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>202</v>
@@ -3561,25 +3561,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
-        <v>35994</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3591,10 +3591,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3779,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46335E66-F184-401D-9137-5A826822EF88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37EF60C-EF39-4BEA-89E8-8B13F4D13423}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>36487</v>
+        <v>2533</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5443</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="7">
-        <v>60</v>
-      </c>
-      <c r="I4" s="7">
-        <v>36954</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7976</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" s="7">
-        <v>114</v>
-      </c>
-      <c r="N4" s="7">
-        <v>73440</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4660</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2013</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5745</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M5" s="7">
-        <v>16</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10406</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4014,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4029,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4058,13 +4058,13 @@
         <v>14650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4073,13 +4073,13 @@
         <v>17134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4088,13 +4088,13 @@
         <v>31784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4109,13 @@
         <v>6017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4124,13 +4124,13 @@
         <v>746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4139,13 +4139,13 @@
         <v>6763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4207,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>25739</v>
+        <v>36487</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36954</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" s="7">
+        <v>114</v>
+      </c>
+      <c r="N10" s="7">
+        <v>73440</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>24577</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="7">
-        <v>70</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50316</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,49 +4258,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>4407</v>
+        <v>4660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8211</v>
+        <v>5745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>12618</v>
+        <v>10406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4324,10 +4324,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4339,10 +4339,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4362,49 +4362,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>2533</v>
+        <v>25592</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25730</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="7">
+        <v>83</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51323</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5443</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7976</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,46 +4413,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>977</v>
+        <v>2214</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1885</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4098</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2013</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>283</v>
@@ -4464,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4479,10 +4479,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4494,10 +4494,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4517,10 +4517,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>25592</v>
+        <v>25739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>284</v>
@@ -4532,25 +4532,25 @@
         <v>286</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>25730</v>
+        <v>24577</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>51323</v>
+        <v>50316</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>289</v>
@@ -4568,10 +4568,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2214</v>
+        <v>4407</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>292</v>
@@ -4583,25 +4583,25 @@
         <v>294</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>1885</v>
+        <v>8211</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>4098</v>
+        <v>12618</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>297</v>
@@ -4619,25 +4619,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4649,10 +4649,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4684,7 +4684,7 @@
         <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -4699,7 +4699,7 @@
         <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -4732,7 +4732,7 @@
         <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>308</v>
@@ -4747,7 +4747,7 @@
         <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>310</v>
@@ -4837,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DCAFAA-5639-4DB6-87B3-DAC251BE39B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB51342C-1863-48CD-A62C-CC491A229498}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,10 +4955,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>52337</v>
+        <v>3589</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>315</v>
@@ -4967,37 +4967,37 @@
         <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5723</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="7">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7">
-        <v>36498</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9310</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="7">
-        <v>138</v>
-      </c>
-      <c r="N4" s="7">
-        <v>88835</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5006,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>8508</v>
+        <v>578</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>489</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3675</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1068</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M5" s="7">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12183</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,10 +5057,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5072,10 +5072,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5087,10 +5087,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5116,13 +5116,13 @@
         <v>20900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5131,13 +5131,13 @@
         <v>16823</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5146,13 +5146,13 @@
         <v>37722</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5167,13 @@
         <v>704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5182,13 +5182,13 @@
         <v>2500</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5197,13 +5197,13 @@
         <v>3205</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5265,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>30474</v>
+        <v>52337</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36498</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="7">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28589</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>138</v>
+      </c>
+      <c r="N10" s="7">
+        <v>88835</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M10" s="7">
-        <v>87</v>
-      </c>
-      <c r="N10" s="7">
-        <v>59064</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,49 +5316,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>1953</v>
+        <v>8508</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3675</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12183</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2220</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4173</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5382,10 +5382,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5397,10 +5397,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5420,49 +5420,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>3589</v>
+        <v>47287</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="7">
+        <v>65</v>
+      </c>
+      <c r="I13" s="7">
+        <v>51728</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M13" s="7">
+        <v>131</v>
+      </c>
+      <c r="N13" s="7">
+        <v>99014</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5723</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9310</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,46 +5471,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>578</v>
+        <v>6207</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6167</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>489</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12374</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1068</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>374</v>
@@ -5522,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5537,10 +5537,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5552,10 +5552,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5575,10 +5575,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>47287</v>
+        <v>30474</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>375</v>
@@ -5590,10 +5590,10 @@
         <v>377</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>51728</v>
+        <v>28589</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>378</v>
@@ -5605,10 +5605,10 @@
         <v>380</v>
       </c>
       <c r="M16" s="7">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>99014</v>
+        <v>59064</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>381</v>
@@ -5626,10 +5626,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>6207</v>
+        <v>1953</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>384</v>
@@ -5641,10 +5641,10 @@
         <v>386</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>6167</v>
+        <v>2220</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>387</v>
@@ -5656,10 +5656,10 @@
         <v>389</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>12374</v>
+        <v>4173</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>390</v>
@@ -5677,10 +5677,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5692,10 +5692,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5707,10 +5707,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F658D77-6EF0-4201-BCF9-0B45D635DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3355750D-AF35-46F9-A45C-1A76139ED246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EEFCBB27-FCBC-469B-8EA5-531F2914A10F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{497403DD-59F4-48E3-973F-21D65C92AE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,49 +116,19 @@
     <t>64,36%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1141 +137,1186 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
     <t>88,69%</t>
   </si>
   <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>93,15%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1327,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1378,39 +1423,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1462,7 +1507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1573,13 +1618,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1588,6 +1626,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1652,19 +1697,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740C6D62-EDE6-4AAC-B2E1-91120BCFC612}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882886E8-CD41-4F34-8D3B-775327C6349B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1781,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3008</v>
+        <v>1779</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1796,10 +1861,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6240</v>
+        <v>3454</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1811,10 +1876,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>9247</v>
+        <v>5234</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1832,10 +1897,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1779</v>
+        <v>3008</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1847,10 +1912,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>3454</v>
+        <v>6240</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1862,10 +1927,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>5234</v>
+        <v>9247</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1936,10 +2001,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>21185</v>
+        <v>2702</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1951,10 +2016,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>18298</v>
+        <v>4826</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1966,10 +2031,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>39483</v>
+        <v>7528</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1987,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>2702</v>
+        <v>21185</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2002,10 +2067,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>4826</v>
+        <v>18298</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2017,10 +2082,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>7528</v>
+        <v>39483</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2091,10 +2156,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>36703</v>
+        <v>4603</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2106,10 +2171,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>37705</v>
+        <v>3942</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2121,10 +2186,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>74407</v>
+        <v>8545</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2142,10 +2207,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>4603</v>
+        <v>36703</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2157,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>3942</v>
+        <v>37705</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2172,10 +2237,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="N11" s="7">
-        <v>8545</v>
+        <v>74407</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2246,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>29262</v>
+        <v>5861</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2261,10 +2326,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>23279</v>
+        <v>1885</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2276,10 +2341,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>52540</v>
+        <v>7746</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2297,10 +2362,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>5861</v>
+        <v>29262</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2312,10 +2377,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>1885</v>
+        <v>23279</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2327,10 +2392,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="N14" s="7">
-        <v>7746</v>
+        <v>52540</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2401,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>30351</v>
+        <v>8466</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2416,34 +2481,34 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>20419</v>
+        <v>5258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>50770</v>
+        <v>13724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,49 +2517,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>8466</v>
+        <v>30351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>5258</v>
+        <v>20419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>13724</v>
+        <v>50770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2621,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>120508</v>
+        <v>23411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>105939</v>
+        <v>19366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>344</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>226448</v>
+        <v>42776</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>23411</v>
+        <v>120508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="I20" s="7">
-        <v>19366</v>
+        <v>105939</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="N20" s="7">
-        <v>42776</v>
+        <v>226448</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,6 +2766,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2721,8 +2791,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641C84B-A817-48F8-BB5A-69E68272B318}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395B5315-70AE-456B-900A-513C3002F139}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2738,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2839,49 +2909,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5338</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>7989</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +2960,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>5338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>7989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,49 +3064,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>29036</v>
+        <v>2736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>18964</v>
+        <v>6248</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>48001</v>
+        <v>8984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,49 +3115,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>2736</v>
+        <v>29036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>6248</v>
+        <v>18964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N8" s="7">
-        <v>8984</v>
+        <v>48001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3219,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>32901</v>
+        <v>7419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>37763</v>
+        <v>3261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>70664</v>
+        <v>10680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3270,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>7419</v>
+        <v>32901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>3261</v>
+        <v>37763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>10680</v>
+        <v>70664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,49 +3374,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>32571</v>
+        <v>3423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>28397</v>
+        <v>4567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>60968</v>
+        <v>7990</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3425,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>3423</v>
+        <v>32571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>4567</v>
+        <v>28397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>7990</v>
+        <v>60968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,49 +3529,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>40763</v>
+        <v>6466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>39000</v>
+        <v>2786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>79763</v>
+        <v>9252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3580,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>6466</v>
+        <v>40763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>2786</v>
+        <v>39000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="N17" s="7">
-        <v>9252</v>
+        <v>79763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,49 +3684,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>137922</v>
+        <v>20044</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>129463</v>
+        <v>17758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
-        <v>381</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>267385</v>
+        <v>37802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +3735,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="D20" s="7">
-        <v>20044</v>
+        <v>137922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="I20" s="7">
-        <v>17758</v>
+        <v>129463</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="N20" s="7">
-        <v>37802</v>
+        <v>267385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,6 +3829,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3779,8 +3854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37EF60C-EF39-4BEA-89E8-8B13F4D13423}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5D649D-77A9-4DA9-92BE-0145EC570C6E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3796,7 +3871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,49 +3972,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2533</v>
+        <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5443</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>7976</v>
+        <v>2013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +4023,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>977</v>
+        <v>2533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>1036</v>
+        <v>5443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>2013</v>
+        <v>7976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,49 +4127,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>14650</v>
+        <v>6017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>17134</v>
+        <v>746</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>31784</v>
+        <v>6763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,49 +4178,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>6017</v>
+        <v>14650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>746</v>
+        <v>17134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>6763</v>
+        <v>31784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4282,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>36487</v>
+        <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>36954</v>
+        <v>5745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>73440</v>
+        <v>10406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,49 +4333,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>4660</v>
+        <v>36487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>5745</v>
+        <v>36954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="N11" s="7">
-        <v>10406</v>
+        <v>73440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>25592</v>
+        <v>2214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>25730</v>
+        <v>1885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>51323</v>
+        <v>4098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>2214</v>
+        <v>25592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>1885</v>
+        <v>25730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>4098</v>
+        <v>51323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,49 +4592,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>25739</v>
+        <v>4407</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>24577</v>
+        <v>8211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>50316</v>
+        <v>12618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,49 +4643,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>4407</v>
+        <v>25739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>8211</v>
+        <v>24577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>12618</v>
+        <v>50316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +4747,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>105001</v>
+        <v>18275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>109838</v>
+        <v>17623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>214839</v>
+        <v>35898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +4798,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D20" s="7">
-        <v>18275</v>
+        <v>105001</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I20" s="7">
-        <v>17623</v>
+        <v>109838</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="N20" s="7">
-        <v>35898</v>
+        <v>214839</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,6 +4892,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4837,8 +4917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB51342C-1863-48CD-A62C-CC491A229498}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0E1C7-5D95-4EA8-AC91-7AE2CEEC99A0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4854,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4955,49 +5035,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3589</v>
+        <v>578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5723</v>
+        <v>489</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>9310</v>
+        <v>1068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5086,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>578</v>
+        <v>3589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>489</v>
+        <v>5723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>1068</v>
+        <v>9310</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5190,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>20900</v>
+        <v>704</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>16823</v>
+        <v>2500</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>37722</v>
+        <v>3205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,49 +5241,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>704</v>
+        <v>20900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>2500</v>
+        <v>16823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>3205</v>
+        <v>37722</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5345,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>52337</v>
+        <v>8508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>36498</v>
+        <v>3675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>88835</v>
+        <v>12183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,49 +5396,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7">
-        <v>8508</v>
+        <v>52337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>3675</v>
+        <v>36498</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="N11" s="7">
-        <v>12183</v>
+        <v>88835</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,49 +5500,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>47287</v>
+        <v>6207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>51728</v>
+        <v>6167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>99014</v>
+        <v>12374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,49 +5551,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>6207</v>
+        <v>47287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>6167</v>
+        <v>51728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N14" s="7">
-        <v>12374</v>
+        <v>99014</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,49 +5655,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>30474</v>
+        <v>1953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>28589</v>
+        <v>2220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>59064</v>
+        <v>4173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,49 +5706,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>1953</v>
+        <v>30474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>2220</v>
+        <v>28589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>4173</v>
+        <v>59064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,49 +5810,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>154586</v>
+        <v>17951</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>139361</v>
+        <v>15051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>293946</v>
+        <v>33002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,49 +5861,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="D20" s="7">
-        <v>17951</v>
+        <v>154586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I20" s="7">
-        <v>15051</v>
+        <v>139361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
-        <v>43</v>
+        <v>433</v>
       </c>
       <c r="N20" s="7">
-        <v>33002</v>
+        <v>293946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,6 +5955,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3355750D-AF35-46F9-A45C-1A76139ED246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{720F4961-48EF-45AF-965D-EFF3AD830C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{497403DD-59F4-48E3-973F-21D65C92AE7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3B37277-377C-4625-9C31-D5A18919ED7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>88,48%</t>
+    <t>84,35%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>62,83%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,193 +116,193 @@
     <t>64,36%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,7 +311,7 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>12,49%</t>
   </si>
   <si>
     <t>34,68%</t>
@@ -320,19 +320,19 @@
     <t>20,48%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>78,19%</t>
@@ -341,43 +341,43 @@
     <t>65,32%</t>
   </si>
   <si>
-    <t>88,14%</t>
+    <t>87,51%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>15,89%</t>
@@ -386,31 +386,31 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>87,52%</t>
@@ -431,13 +431,13 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>58,84%</t>
+    <t>60,33%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>49,57%</t>
+    <t>46,85%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -446,841 +446,829 @@
     <t>85,63%</t>
   </si>
   <si>
-    <t>41,16%</t>
+    <t>39,67%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>93,87%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>19,22%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>80,78%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>10,09%</t>
@@ -1289,31 +1277,31 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>86,7%</t>
+    <t>86,64%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -1728,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882886E8-CD41-4F34-8D3B-775327C6349B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C03D35D-1BF9-4AA4-BA3A-54099E87FEF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395B5315-70AE-456B-900A-513C3002F139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905DBDAE-9A06-410F-8ECF-4DB17E6FDC0D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3070,13 +3058,13 @@
         <v>2736</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3085,13 +3073,13 @@
         <v>6248</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3100,13 +3088,13 @@
         <v>8984</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3109,13 @@
         <v>29036</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3136,13 +3124,13 @@
         <v>18964</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -3151,13 +3139,13 @@
         <v>48001</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3213,13 @@
         <v>7419</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3240,13 +3228,13 @@
         <v>3261</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3255,13 +3243,13 @@
         <v>10680</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3264,13 @@
         <v>32901</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -3291,13 +3279,13 @@
         <v>37763</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3306,13 +3294,13 @@
         <v>70664</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3368,13 @@
         <v>3423</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3395,13 +3383,13 @@
         <v>4567</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3410,13 +3398,13 @@
         <v>7990</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3419,13 @@
         <v>32571</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -3446,13 +3434,13 @@
         <v>28397</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3461,13 +3449,13 @@
         <v>60968</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3523,13 @@
         <v>6466</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3550,13 +3538,13 @@
         <v>2786</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3565,13 +3553,13 @@
         <v>9252</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3574,13 @@
         <v>40763</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3601,13 +3589,13 @@
         <v>39000</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -3616,13 +3604,13 @@
         <v>79763</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3678,13 @@
         <v>20044</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3705,13 +3693,13 @@
         <v>17758</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3720,13 +3708,13 @@
         <v>37802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3729,13 @@
         <v>137922</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3756,13 +3744,13 @@
         <v>129463</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>381</v>
@@ -3771,13 +3759,13 @@
         <v>267385</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5D649D-77A9-4DA9-92BE-0145EC570C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1667A5-B406-4119-9EAE-1A490CE67BAB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3871,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,13 +3966,13 @@
         <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3993,13 +3981,13 @@
         <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4008,13 +3996,13 @@
         <v>2013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +4017,10 @@
         <v>2533</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4917,7 +4905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0E1C7-5D95-4EA8-AC91-7AE2CEEC99A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD417B2-81E5-4BEB-98D4-5B3BCB44E5E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5226,13 +5214,13 @@
         <v>3205</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,10 +5235,10 @@
         <v>20900</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -5262,13 +5250,13 @@
         <v>16823</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -5277,13 +5265,13 @@
         <v>37722</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5339,13 @@
         <v>8508</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5366,13 +5354,13 @@
         <v>3675</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5381,13 +5369,13 @@
         <v>12183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5390,13 @@
         <v>52337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5417,13 +5405,13 @@
         <v>36498</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -5432,13 +5420,13 @@
         <v>88835</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5494,13 @@
         <v>6207</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5521,13 +5509,13 @@
         <v>6167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5536,13 +5524,13 @@
         <v>12374</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5545,13 @@
         <v>47287</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5572,13 +5560,13 @@
         <v>51728</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -5587,13 +5575,13 @@
         <v>99014</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5649,13 @@
         <v>1953</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5676,13 +5664,13 @@
         <v>2220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5691,13 +5679,13 @@
         <v>4173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5700,13 @@
         <v>30474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5727,13 +5715,13 @@
         <v>28589</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -5742,13 +5730,13 @@
         <v>59064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5804,13 @@
         <v>17951</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5831,13 +5819,13 @@
         <v>15051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -5846,13 +5834,13 @@
         <v>33002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5855,13 @@
         <v>154586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -5882,13 +5870,13 @@
         <v>139361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>433</v>
@@ -5897,13 +5885,13 @@
         <v>293946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{720F4961-48EF-45AF-965D-EFF3AD830C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A35E470-69FE-4C92-805B-84F0BCCEFD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3B37277-377C-4625-9C31-D5A18919ED7A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3746930-876B-414F-9329-C379EE61504C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1243 +68,1057 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>37,17%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C03D35D-1BF9-4AA4-BA3A-54099E87FEF9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4936466-B384-4D61-99CB-E4C4CC3AAFE8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1834,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>1779</v>
+        <v>8281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1849,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3454</v>
+        <v>4481</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1864,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>5234</v>
+        <v>12762</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1885,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>3008</v>
+        <v>24537</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1900,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>6240</v>
+        <v>24193</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1915,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="N5" s="7">
-        <v>9247</v>
+        <v>48730</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1936,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1951,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1989,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>2702</v>
+        <v>3942</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2007,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>4826</v>
+        <v>4603</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2019,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>7528</v>
+        <v>8545</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2040,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>21185</v>
+        <v>37705</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2055,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>18298</v>
+        <v>36703</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2070,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>39483</v>
+        <v>74407</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2091,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2106,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2144,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4603</v>
+        <v>1885</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2159,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>3942</v>
+        <v>5861</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2174,10 +1988,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>8545</v>
+        <v>7746</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2195,10 +2009,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>36703</v>
+        <v>23279</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2210,10 +2024,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>37705</v>
+        <v>29262</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2225,10 +2039,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>74407</v>
+        <v>52540</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2246,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2261,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2299,49 +2113,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>5861</v>
+        <v>5258</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8466</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1885</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>19</v>
+      </c>
+      <c r="N13" s="7">
+        <v>13724</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7746</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,49 +2164,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>29262</v>
+        <v>20419</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30351</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>23279</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>71</v>
+      </c>
+      <c r="N14" s="7">
+        <v>50770</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>84</v>
-      </c>
-      <c r="N14" s="7">
-        <v>52540</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2416,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2245,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2448,55 +2262,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>8466</v>
+        <v>19366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7">
+        <v>23411</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5258</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>61</v>
+      </c>
+      <c r="N16" s="7">
+        <v>42776</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13724</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,49 +2319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7">
-        <v>30351</v>
+        <v>105939</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>181</v>
+      </c>
+      <c r="I17" s="7">
+        <v>120508</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20419</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>344</v>
+      </c>
+      <c r="N17" s="7">
+        <v>226448</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>71</v>
-      </c>
-      <c r="N17" s="7">
-        <v>50770</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2571,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2602,171 +2416,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23411</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19366</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>61</v>
-      </c>
-      <c r="N19" s="7">
-        <v>42776</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>120508</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>163</v>
-      </c>
-      <c r="I20" s="7">
-        <v>105939</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>344</v>
-      </c>
-      <c r="N20" s="7">
-        <v>226448</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2779,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905DBDAE-9A06-410F-8ECF-4DB17E6FDC0D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD97657-8DFA-4198-8B92-CA378C78BDF8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2796,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2897,49 +2555,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>2736</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>9880</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,49 +2606,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>24302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>5338</v>
+        <v>31688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="N5" s="7">
-        <v>7989</v>
+        <v>55990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3014,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3052,49 +2710,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2736</v>
+        <v>3261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>6248</v>
+        <v>7419</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>8984</v>
+        <v>10680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +2761,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>29036</v>
+        <v>37763</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>32901</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7">
         <v>103</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7">
-        <v>18964</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="7">
-        <v>66</v>
-      </c>
       <c r="N8" s="7">
-        <v>48001</v>
+        <v>70664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>41024</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3169,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>81344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3207,49 +2865,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>7419</v>
+        <v>4567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3261</v>
+        <v>3423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10680</v>
+        <v>7990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,46 +2919,46 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>32901</v>
+        <v>28397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>37763</v>
+        <v>32571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>70664</v>
+        <v>60968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,25 +2967,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>32964</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>40320</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>62</v>
-      </c>
       <c r="I12" s="7">
-        <v>41024</v>
+        <v>35994</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>81344</v>
+        <v>68958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3362,49 +3020,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3423</v>
+        <v>2786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>4567</v>
+        <v>6466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>7990</v>
+        <v>9252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3071,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>32571</v>
+        <v>39000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>28397</v>
+        <v>40763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>60968</v>
+        <v>79763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>35994</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3479,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3511,55 +3169,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>6466</v>
+        <v>17758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>2786</v>
+        <v>20044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>9252</v>
+        <v>37802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,49 +3226,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D17" s="7">
-        <v>40763</v>
+        <v>129463</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="I17" s="7">
-        <v>39000</v>
+        <v>137922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="N17" s="7">
-        <v>79763</v>
+        <v>267385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>147221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3634,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>157966</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3307,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>305187</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3665,171 +3323,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20044</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="7">
-        <v>53</v>
-      </c>
-      <c r="N19" s="7">
-        <v>37802</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>194</v>
-      </c>
-      <c r="D20" s="7">
-        <v>137922</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>187</v>
-      </c>
-      <c r="I20" s="7">
-        <v>129463</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="7">
-        <v>381</v>
-      </c>
-      <c r="N20" s="7">
-        <v>267385</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>222</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>434</v>
-      </c>
-      <c r="N21" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3842,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1667A5-B406-4119-9EAE-1A490CE67BAB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26AF56F-C9A5-4375-9C68-D3AFB737D505}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3859,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>977</v>
+        <v>1782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>1036</v>
+        <v>6994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>2013</v>
+        <v>8776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +3513,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>2533</v>
+        <v>22577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
       <c r="I5" s="7">
-        <v>5443</v>
+        <v>17182</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>7976</v>
+        <v>39760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4077,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4115,49 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>6017</v>
+        <v>5745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>746</v>
+        <v>4660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>6763</v>
+        <v>10406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>14650</v>
+        <v>36954</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>17134</v>
+        <v>36487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N8" s="7">
-        <v>31784</v>
+        <v>73440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4232,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3749,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4270,49 +3772,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1885</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2214</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>4660</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5745</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M10" s="7">
-        <v>16</v>
-      </c>
       <c r="N10" s="7">
-        <v>10406</v>
+        <v>4098</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,49 +3823,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>36487</v>
+        <v>25730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>36954</v>
+        <v>25592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>73440</v>
+        <v>51323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4387,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4425,49 +3927,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2214</v>
+        <v>8211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1885</v>
+        <v>4407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>4098</v>
+        <v>12618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,49 +3978,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>25592</v>
+        <v>24577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>25730</v>
+        <v>25739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>51323</v>
+        <v>50316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4032,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4542,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4574,55 +4076,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>4407</v>
+        <v>17623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>8211</v>
+        <v>18275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>12618</v>
+        <v>35898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="D17" s="7">
-        <v>25739</v>
+        <v>109838</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="I17" s="7">
-        <v>24577</v>
+        <v>105001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>50316</v>
+        <v>214839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4697,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4728,171 +4230,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>18275</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17623</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="7">
-        <v>50</v>
-      </c>
-      <c r="N19" s="7">
-        <v>35898</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>153</v>
-      </c>
-      <c r="D20" s="7">
-        <v>105001</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="7">
-        <v>168</v>
-      </c>
-      <c r="I20" s="7">
-        <v>109838</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M20" s="7">
-        <v>321</v>
-      </c>
-      <c r="N20" s="7">
-        <v>214839</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4905,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD417B2-81E5-4BEB-98D4-5B3BCB44E5E6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC052FA0-045A-4CC8-BD09-EE2E571F285B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4922,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5023,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>578</v>
+        <v>3036</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>489</v>
+        <v>1383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>1068</v>
+        <v>4418</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,49 +4420,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>3589</v>
+        <v>22805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>5723</v>
+        <v>26277</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>9310</v>
+        <v>49083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5140,10 +4486,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4501,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5178,49 +4524,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>704</v>
+        <v>3724</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>2500</v>
+        <v>8837</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>3205</v>
+        <v>12561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,49 +4575,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>20900</v>
+        <v>40518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>16823</v>
+        <v>54972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="N8" s="7">
-        <v>37722</v>
+        <v>95490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5295,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5333,49 +4679,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>8508</v>
+        <v>6082</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>3675</v>
+        <v>6455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>12183</v>
+        <v>12537</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,49 +4730,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>52337</v>
+        <v>70989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>36498</v>
+        <v>50468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7">
-        <v>88835</v>
+        <v>121457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5450,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4811,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5488,49 +4834,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6207</v>
+        <v>2145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>6167</v>
+        <v>1935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>12374</v>
+        <v>4080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,49 +4885,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>47287</v>
+        <v>28416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>51728</v>
+        <v>31874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>99014</v>
+        <v>60290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5605,10 +4951,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5637,55 +4983,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>1953</v>
+        <v>14986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>2220</v>
+        <v>18609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>4173</v>
+        <v>33595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>30474</v>
+        <v>162729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>28589</v>
+        <v>163592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="N17" s="7">
-        <v>59064</v>
+        <v>326321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5760,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5791,171 +5137,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17951</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15051</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>33002</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>227</v>
-      </c>
-      <c r="D20" s="7">
-        <v>154586</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H20" s="7">
-        <v>206</v>
-      </c>
-      <c r="I20" s="7">
-        <v>139361</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="M20" s="7">
-        <v>433</v>
-      </c>
-      <c r="N20" s="7">
-        <v>293946</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
